--- a/static/downloads/73 Bưu điện Trung tâm Chợ Lớn.xlsx
+++ b/static/downloads/73 Bưu điện Trung tâm Chợ Lớn.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>751500_tamptt</t>
+          <t>743100_yentp</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>743100_yentp</t>
+          <t>752428_hongnta</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>752428_hongnta</t>
+          <t>752800_tuhtt</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>752800_tuhtt</t>
+          <t>748500_oanhnh</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>748500_oanhnh</t>
+          <t>746868_trinhlv</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>746868_trinhlv</t>
+          <t>746768_trinhlv</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>746768_trinhlv</t>
+          <t>746446_dantt</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>746446_dantt</t>
+          <t>744910_tamvt_g</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>744910_tamvt_g</t>
+          <t>743500_tamvt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>743500_tamvt</t>
+          <t>752800_baotnq</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>752800_baotnq</t>
+          <t>746768_vannt</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>746768_vannt</t>
+          <t>743000_khoatdd</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>743000_khoatdd</t>
+          <t>750100_trungnt</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>750100_trungnt</t>
+          <t>746868_vannt</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>746868_vannt</t>
+          <t>750100_tuanta</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>750100_tuanta</t>
+          <t>751100_lyntm</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>751100_lyntm</t>
+          <t>749575_phatnv</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>749575_phatnv</t>
+          <t>749575_g740174</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>749575_g740174</t>
+          <t>747400_g763430</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>747400_g763430</t>
+          <t>747400_g740174</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>747400_g740174</t>
+          <t>743800_g740174</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>743800_g740174</t>
+          <t>748500_nganltk</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>748500_nganltk</t>
+          <t>749000_g740174</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>749000_g740174</t>
+          <t>743500_kieulm_g</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>743500_kieulm_g</t>
+          <t>752710_khanhvh</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>752710_khanhvh</t>
+          <t>746868_vannt_g</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>746868_vannt_g</t>
+          <t>749000_huyenntm</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>749000_huyenntm</t>
+          <t>751500_g740174</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>751500_g740174</t>
+          <t>744910_lannth</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>744910_lannth</t>
+          <t>747160_levtb</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>747160_levtb</t>
+          <t>748000_trangdm</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>748000_trangdm</t>
+          <t>749000_yennth</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>749000_yennth</t>
+          <t>750100_trangdm</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>750100_trangdm</t>
+          <t>748000_trang_g</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>748000_trang_g</t>
+          <t>743500_nhitnt</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>743500_nhitnt</t>
+          <t>746000_levtb</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>746000_levtb</t>
+          <t>743500_kieulm</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>743500_kieulm</t>
+          <t>743100_thuntn_g</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>743100_thuntn_g</t>
+          <t>750100_dung_gdv</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>750100_dung_gdv</t>
+          <t>752428_phuongdm</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>752428_phuongdm</t>
+          <t>752702_khanhvh</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>752702_khanhvh</t>
+          <t>748500_trang_g</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>748500_trang_g</t>
+          <t>746446_vannt_g</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>746446_vannt_g</t>
+          <t>748020_hanhntm</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>748020_hanhntm</t>
+          <t>747400_g721344</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>747400_g721344</t>
+          <t>750100_trang_g</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>750100_trang_g</t>
+          <t>743800_thuandv</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>743800_thuandv</t>
+          <t>752428_khanhvh</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>752428_khanhvh</t>
+          <t>751000_phonglh</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>751000_phonglh</t>
+          <t>744910_nhitnt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>744910_nhitnt</t>
+          <t>751100_tamptt</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>751100_tamptt</t>
+          <t>747400_g731071</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>747400_g731071</t>
+          <t>752800_ngannk</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>752800_ngannk</t>
+          <t>743000_hungnt</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>743000_hungnt</t>
+          <t>751100_g740174</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>751100_g740174</t>
+          <t>743000_a740174</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>743000_a740174</t>
+          <t>743100_g721344</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>743100_g721344</t>
+          <t>749000_g758409</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>749000_g758409</t>
+          <t>752800_g740174</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>752800_g740174</t>
+          <t>751000_ngannk</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>751000_ngannk</t>
+          <t>752710_ngoctv</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>752710_ngoctv</t>
+          <t>743800_loanttt</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>743800_loanttt</t>
+          <t>746446_g763430</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>746446_g763430</t>
+          <t>749000_g763430</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>749000_g763430</t>
+          <t>748000_a740174</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>748000_a740174</t>
+          <t>743100_kieulm</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>743100_kieulm</t>
+          <t>752702_hungnm</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>752702_hungnm</t>
+          <t>746446_g740174</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>746446_g740174</t>
+          <t>747160_thupt</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>747160_thupt</t>
+          <t>746000_nguyentm</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>746000_nguyentm</t>
+          <t>743000_tamvt</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>743000_tamvt</t>
+          <t>743800_vannt</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>743800_vannt</t>
+          <t>746446_g760130</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>746446_g760130</t>
+          <t>749000_g731071</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>749000_g731071</t>
+          <t>743010_g740174</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>743010_g740174</t>
+          <t>746446_travt</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>746446_travt</t>
+          <t>752800_lantt</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>752800_lantt</t>
+          <t>749000_g727025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>749000_g727025</t>
+          <t>743010_g760130</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>743010_g760130</t>
+          <t>752800_hieutlt</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>752800_hieutlt</t>
+          <t>747400_nguyetta</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>747400_nguyetta</t>
+          <t>743800_g731071</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>743800_g731071</t>
+          <t>749000_g718260</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>749000_g718260</t>
+          <t>747400_dungthn</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>747400_dungthn</t>
+          <t>752800_hoaintt</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>752800_hoaintt</t>
+          <t>752800_anhlt</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>752800_anhlt</t>
+          <t>751000_anhhq</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>751000_anhhq</t>
+          <t>748000_daintvt</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>748000_daintvt</t>
+          <t>748010_g740174</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>748010_g740174</t>
+          <t>744910_kieulm</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>744910_kieulm</t>
+          <t>749000_g721344</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>749000_g721344</t>
+          <t>752800_g763430</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>752800_g763430</t>
+          <t>746446_dungdtn</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>746446_dungdtn</t>
+          <t>752428_ngoctv</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>752428_ngoctv</t>
+          <t>743800_duyenntd</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>743800_duyenntd</t>
+          <t>752702_ngoctv</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>752702_ngoctv</t>
+          <t>743800_daintmg</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>743800_daintmg</t>
+          <t>752800_g758409</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>752800_g758409</t>
+          <t>747400_thuyntk</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>747400_thuyntk</t>
+          <t>743800_g758409</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2416,22 +2416,10 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>743800_g758409</t>
+          <t>751000_hoaintt</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
-        <is>
-          <t>73_Bưu điện Trung tâm Chợ Lớn</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>751000_hoaintt</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
         <is>
           <t>73_Bưu điện Trung tâm Chợ Lớn</t>
         </is>
